--- a/doc/planification/B65_-_Hiver_2015_-_Outil_d.xlsx
+++ b/doc/planification/B65_-_Hiver_2015_-_Outil_d.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="0" windowWidth="21460" windowHeight="13780" tabRatio="494"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="25160" windowHeight="15280" tabRatio="494"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Planification" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>Rédaction du document de planification</t>
-  </si>
-  <si>
-    <t>Nom du projet super cool que vous faites!</t>
   </si>
   <si>
     <t>Prédéces.</t>
@@ -381,6 +378,54 @@
   </si>
   <si>
     <t>Alex Bouffard</t>
+  </si>
+  <si>
+    <t>Création de l'interface QT</t>
+  </si>
+  <si>
+    <t>Relooker</t>
+  </si>
+  <si>
+    <t>Création de la classe Fichier</t>
+  </si>
+  <si>
+    <t>Création de la classe Visualizer</t>
+  </si>
+  <si>
+    <t>Génération 2d de courbe de Hilbert</t>
+  </si>
+  <si>
+    <t>Création des expressions régulières</t>
+  </si>
+  <si>
+    <t>Fonction de sauvegarde</t>
+  </si>
+  <si>
+    <t>Création de la classe Editor</t>
+  </si>
+  <si>
+    <t>Éditeur de strings</t>
+  </si>
+  <si>
+    <t>Éditeur hexadécimal</t>
+  </si>
+  <si>
+    <t>Éditeur de ressources</t>
+  </si>
+  <si>
+    <t>Classe statistiques</t>
+  </si>
+  <si>
+    <t>Création de la classe cube</t>
+  </si>
+  <si>
+    <t>Création de la classe disassembly</t>
+  </si>
+  <si>
+    <t>Analyse cryptographique</t>
+  </si>
+  <si>
+    <t>Éditeur d'assembleur</t>
   </si>
 </sst>
 </file>
@@ -2633,10 +2678,10 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2651,8 +2696,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="100"/>
-        <c:axId val="2082887000"/>
-        <c:axId val="2082891992"/>
+        <c:axId val="2089902232"/>
+        <c:axId val="2089897816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2705,10 +2750,10 @@
                   <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2725,11 +2770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082887000"/>
-        <c:axId val="2082891992"/>
+        <c:axId val="2089902232"/>
+        <c:axId val="2089897816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2082887000"/>
+        <c:axId val="2089902232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2772,7 +2817,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082891992"/>
+        <c:crossAx val="2089897816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2780,7 +2825,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082891992"/>
+        <c:axId val="2089897816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,7 +2876,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082887000"/>
+        <c:crossAx val="2089902232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3026,10 +3071,10 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,11 +3158,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-15"/>
-        <c:axId val="2081423848"/>
-        <c:axId val="2083772280"/>
+        <c:axId val="2091390760"/>
+        <c:axId val="2091398120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2081423848"/>
+        <c:axId val="2091390760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3160,7 +3205,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2083772280"/>
+        <c:crossAx val="2091398120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3168,7 +3213,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2083772280"/>
+        <c:axId val="2091398120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,7 +3264,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081423848"/>
+        <c:crossAx val="2091390760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3486,10 +3531,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3588,10 +3633,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3888,13 +3933,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3996,10 +4041,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4089,2210 +4134,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6737,7 +4578,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6747,8 +4588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AJ90"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6769,7 +4610,7 @@
     <row r="1" spans="2:31" ht="7.5" customHeight="1"/>
     <row r="2" spans="2:31" ht="22.5" customHeight="1" thickBot="1">
       <c r="B2" s="122" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C2" s="122"/>
       <c r="D2" s="122"/>
@@ -6780,14 +4621,14 @@
     </row>
     <row r="3" spans="2:31" ht="15" customHeight="1" thickBot="1">
       <c r="B3" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="123"/>
       <c r="G3" s="123"/>
@@ -6804,7 +4645,7 @@
     </row>
     <row r="5" spans="2:31" ht="22.5" customHeight="1" thickBot="1">
       <c r="B5" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="29"/>
@@ -6813,7 +4654,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="60" t="str">
         <f>IF(L44=0,CONCATENATE(AE12, " totalisant ", AE15, " de travail estimé."),CONCATENATE("Attention, il reste " &amp; L45 &amp; " à remplir."))</f>
-        <v>4 tâches ont été définies totalisant 12 heures et 30 minutes de travail estimé.</v>
+        <v>19 tâches ont été définies totalisant 67 heures et 30 minutes de travail estimé.</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="7.5" customHeight="1" thickBot="1"/>
@@ -6822,25 +4663,25 @@
         <v>0</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="66" t="s">
+      <c r="H7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="T7" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:31">
@@ -6851,10 +4692,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -6886,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S8" s="23">
         <v>233</v>
@@ -6896,10 +4737,10 @@
       </c>
       <c r="U8" s="3">
         <f>MAX(B8:B42)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W8" s="3">
         <v>1</v>
@@ -6909,7 +4750,7 @@
       </c>
       <c r="Y8" s="8">
         <f>MAX(G8:G42)</f>
-        <v>0.25</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>1</v>
@@ -6922,11 +4763,11 @@
       </c>
       <c r="AC8" s="4">
         <f>COUNTA(C8:C43)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AD8" s="9">
         <f>SUM(G8:G43)</f>
-        <v>0.5208333333333337</v>
+        <v>2.8125000000000009</v>
       </c>
     </row>
     <row r="9" spans="2:31">
@@ -6941,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -6973,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S9" s="23">
         <v>238</v>
@@ -6982,7 +4823,7 @@
         <v>2</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="W9" s="3">
         <v>2</v>
@@ -7001,7 +4842,7 @@
       </c>
       <c r="AD9" s="10">
         <f>AD8</f>
-        <v>0.5208333333333337</v>
+        <v>2.8125000000000009</v>
       </c>
     </row>
     <row r="10" spans="2:31">
@@ -7016,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="18">
         <v>2</v>
@@ -7048,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S10" s="23">
         <v>243</v>
@@ -7073,7 +4914,7 @@
       </c>
       <c r="AD10" s="63">
         <f>DAY(AD8)*24+HOUR(AD8)</f>
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="2:31">
@@ -7088,7 +4929,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="16">
         <v>2</v>
@@ -7136,16 +4977,28 @@
       </c>
     </row>
     <row r="12" spans="2:31">
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="44">
         <f t="shared" ref="B12:B42" si="5">IF(LEN(C12)&lt;&gt;0,IF(OR(LEN(B11)=0,B11="^"),"^",B11+1),"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="42"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="32">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L12" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7167,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S12" s="23">
         <v>212</v>
@@ -7182,28 +5035,40 @@
         <v>0.2</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AD12" s="4">
         <f>AC8</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE12" s="4" t="str">
         <f>AD12 &amp; " " &amp; AC12 &amp; IF(AD12 &gt; 1, "s ont été définies", " a été définie")</f>
-        <v>4 tâches ont été définies</v>
+        <v>19 tâches ont été définies</v>
       </c>
     </row>
     <row r="13" spans="2:31">
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="41"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="16">
+        <v>3</v>
+      </c>
+      <c r="G13" s="31">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L13" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7225,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S13" s="23">
         <v>222</v>
@@ -7240,28 +5105,40 @@
         <v>0.25</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD13" s="4">
         <f>AD10</f>
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="AE13" s="4" t="str">
         <f>AD13 &amp; " " &amp; AC13 &amp; IF(AD13 &gt; 1, "s", "")</f>
-        <v>12 heures</v>
+        <v>67 heures</v>
       </c>
     </row>
     <row r="14" spans="2:31">
-      <c r="B14" s="44" t="str">
+      <c r="B14" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="42"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="19">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L14" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7283,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S14" s="23">
         <v>232</v>
@@ -7298,7 +5175,7 @@
         <v>0.3</v>
       </c>
       <c r="AC14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AD14" s="4">
         <f>AD11</f>
@@ -7310,16 +5187,28 @@
       </c>
     </row>
     <row r="15" spans="2:31">
-      <c r="B15" s="45" t="str">
+      <c r="B15" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="41"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="16">
+        <v>7</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="16">
+        <v>3</v>
+      </c>
+      <c r="G15" s="31">
+        <v>0.16666666666666699</v>
+      </c>
+      <c r="H15" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L15" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7351,20 +5240,32 @@
       </c>
       <c r="AE15" s="4" t="str">
         <f>IF(AD13&gt;0,IF(AD14&gt;0,AE13&amp;" et "&amp;AE14,AE13),AE14)</f>
-        <v>12 heures et 30 minutes</v>
+        <v>67 heures et 30 minutes</v>
       </c>
     </row>
     <row r="16" spans="2:31">
-      <c r="B16" s="44" t="str">
+      <c r="B16" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="42"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="18">
+        <v>6</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="32">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L16" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7386,7 +5287,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S16" s="23">
         <v>58</v>
@@ -7402,16 +5303,28 @@
       </c>
     </row>
     <row r="17" spans="2:36">
-      <c r="B17" s="45" t="str">
+      <c r="B17" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="41"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="16">
+        <v>6</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1</v>
+      </c>
+      <c r="G17" s="31">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L17" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7433,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S17" s="23">
         <v>82</v>
@@ -7476,16 +5389,28 @@
       </c>
     </row>
     <row r="18" spans="2:36">
-      <c r="B18" s="44" t="str">
+      <c r="B18" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="H18" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L18" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7507,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S18" s="23">
         <v>106</v>
@@ -7526,15 +5451,15 @@
       </c>
       <c r="AD18" s="4">
         <f t="array" ref="AD18">SUM(($H$8:$H$42=$AC18)*$G$8:$G$42)</f>
-        <v>0</v>
+        <v>1.2916666666666672</v>
       </c>
       <c r="AE18" s="4">
         <f>AD18 * 24*60</f>
-        <v>0</v>
+        <v>1860.0000000000009</v>
       </c>
       <c r="AF18" s="4">
         <f t="shared" ref="AF18:AF19" si="6">DAY(AD18)*24+HOUR(AD18)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" ref="AG18:AG19" si="7">MINUTE(AD18)</f>
@@ -7542,24 +5467,36 @@
       </c>
       <c r="AH18" s="4" t="str">
         <f t="shared" ref="AH18:AH19" si="8">AF18&amp;"h"&amp;TEXT(AG18,"00")</f>
-        <v>0h00</v>
+        <v>31h00</v>
       </c>
       <c r="AJ18" s="4">
         <f>COUNTIF($H$8:$H$42,AC18)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:36">
-      <c r="B19" s="45" t="str">
+      <c r="B19" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="41"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="16">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L19" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7594,15 +5531,15 @@
       </c>
       <c r="AD19" s="4">
         <f t="array" ref="AD19">SUM(($H$8:$H$42=$AC19)*$G$8:$G$42)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" s="4">
         <f>AD19 * 24*60</f>
-        <v>0</v>
+        <v>1440</v>
       </c>
       <c r="AF19" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG19" s="4">
         <f t="shared" si="7"/>
@@ -7610,24 +5547,36 @@
       </c>
       <c r="AH19" s="4" t="str">
         <f t="shared" si="8"/>
-        <v>0h00</v>
+        <v>24h00</v>
       </c>
       <c r="AJ19" s="4">
         <f>COUNTIF($H$8:$H$42,AC19)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:36">
-      <c r="B20" s="44" t="str">
+      <c r="B20" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="19">
+        <v>10</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="H20" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L20" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7660,16 +5609,28 @@
       </c>
     </row>
     <row r="21" spans="2:36">
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="41"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="16">
+        <v>10</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2</v>
+      </c>
+      <c r="G21" s="31">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>2</v>
+      </c>
       <c r="L21" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7701,15 +5662,15 @@
       </c>
       <c r="AD21" s="4">
         <f>SUM(AD17:AD19)</f>
-        <v>0.5208333333333337</v>
+        <v>2.8125000000000009</v>
       </c>
       <c r="AE21" s="4">
         <f t="shared" ref="AE21" si="9">AD21 * 24*60</f>
-        <v>750.00000000000057</v>
+        <v>4050.0000000000018</v>
       </c>
       <c r="AF21" s="4">
         <f t="shared" ref="AF21" si="10">DAY(AD21)*24+HOUR(AD21)</f>
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="AG21" s="4">
         <f t="shared" ref="AG21" si="11">MINUTE(AD21)</f>
@@ -7717,20 +5678,32 @@
       </c>
       <c r="AH21" s="4" t="str">
         <f t="shared" ref="AH21" si="12">AF21&amp;"h"&amp;TEXT(AG21,"00")</f>
-        <v>12h30</v>
+        <v>67h30</v>
       </c>
     </row>
     <row r="22" spans="2:36">
-      <c r="B22" s="44" t="str">
+      <c r="B22" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="42"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="18">
+        <v>6</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="32">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>2</v>
+      </c>
       <c r="L22" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7762,16 +5735,28 @@
       </c>
     </row>
     <row r="23" spans="2:36">
-      <c r="B23" s="45" t="str">
+      <c r="B23" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="41"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="16">
+        <v>7</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="16">
+        <v>3</v>
+      </c>
+      <c r="G23" s="31">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L23" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7803,16 +5788,28 @@
       </c>
     </row>
     <row r="24" spans="2:36">
-      <c r="B24" s="44" t="str">
+      <c r="B24" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="42"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="19">
+        <v>6</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="18">
+        <v>3</v>
+      </c>
+      <c r="G24" s="32">
+        <v>0.29166666666666702</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L24" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7844,16 +5841,28 @@
       </c>
     </row>
     <row r="25" spans="2:36">
-      <c r="B25" s="45" t="str">
+      <c r="B25" s="45">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="41"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="16">
+        <v>17</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="16">
+        <v>3</v>
+      </c>
+      <c r="G25" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="H25" s="41" t="s">
+        <v>3</v>
+      </c>
       <c r="L25" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7885,16 +5894,28 @@
       </c>
     </row>
     <row r="26" spans="2:36">
-      <c r="B26" s="44" t="str">
+      <c r="B26" s="44">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="42"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="19">
+        <v>17</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="18">
+        <v>2</v>
+      </c>
+      <c r="G26" s="32">
+        <v>0.125</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>3</v>
+      </c>
       <c r="L26" s="3" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9099,7 +7120,7 @@
     <row r="2" spans="2:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="B2" s="124" t="str">
         <f>'Sprint 1 - Planification'!B2:H2</f>
-        <v>Nom du projet super cool que vous faites!</v>
+        <v>Relooker</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -9109,7 +7130,7 @@
     </row>
     <row r="3" spans="2:23">
       <c r="B3" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
@@ -9127,7 +7148,7 @@
     </row>
     <row r="5" spans="2:23" ht="22.5" customHeight="1" thickBot="1">
       <c r="B5" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -9144,19 +7165,19 @@
         <v>0</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="70" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>24</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -9329,17 +7350,17 @@
       </c>
     </row>
     <row r="12" spans="2:23">
-      <c r="B12" s="53" t="str">
+      <c r="B12" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B12)&lt;&gt;0,'Sprint 1 - Planification'!B12,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C12" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C12)&lt;&gt;0,'Sprint 1 - Planification'!C12,"")</f>
-        <v/>
+        <v>Création de l'interface QT</v>
       </c>
       <c r="D12" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E12" s="118"/>
       <c r="F12" s="116"/>
@@ -9358,7 +7379,7 @@
       </c>
       <c r="P12" s="8"/>
       <c r="S12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T12" s="63">
         <f>T10</f>
@@ -9370,17 +7391,17 @@
       </c>
     </row>
     <row r="13" spans="2:23">
-      <c r="B13" s="50" t="str">
+      <c r="B13" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B13)&lt;&gt;0,'Sprint 1 - Planification'!B13,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="C13" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C13)&lt;&gt;0,'Sprint 1 - Planification'!C13,"")</f>
-        <v/>
+        <v>Création de la classe Fichier</v>
       </c>
       <c r="D13" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E13" s="112"/>
       <c r="F13" s="113"/>
@@ -9399,7 +7420,7 @@
       </c>
       <c r="P13" s="8"/>
       <c r="S13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="T13" s="4">
         <f>T11</f>
@@ -9411,17 +7432,17 @@
       </c>
     </row>
     <row r="14" spans="2:23">
-      <c r="B14" s="53" t="str">
+      <c r="B14" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B14)&lt;&gt;0,'Sprint 1 - Planification'!B14,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="C14" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C14)&lt;&gt;0,'Sprint 1 - Planification'!C14,"")</f>
-        <v/>
+        <v>Création de la classe Visualizer</v>
       </c>
       <c r="D14" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E14" s="118"/>
       <c r="F14" s="116"/>
@@ -9449,17 +7470,17 @@
       </c>
     </row>
     <row r="15" spans="2:23">
-      <c r="B15" s="50" t="str">
+      <c r="B15" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B15)&lt;&gt;0,'Sprint 1 - Planification'!B15,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C15" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C15)&lt;&gt;0,'Sprint 1 - Planification'!C15,"")</f>
-        <v/>
+        <v>Génération 2d de courbe de Hilbert</v>
       </c>
       <c r="D15" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E15" s="112"/>
       <c r="F15" s="113"/>
@@ -9487,17 +7508,17 @@
       </c>
     </row>
     <row r="16" spans="2:23">
-      <c r="B16" s="53" t="str">
+      <c r="B16" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B16)&lt;&gt;0,'Sprint 1 - Planification'!B16,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C16" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v/>
+        <v>Création des expressions régulières</v>
       </c>
       <c r="D16" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E16" s="115"/>
       <c r="F16" s="116"/>
@@ -9517,17 +7538,17 @@
       <c r="P16" s="8"/>
     </row>
     <row r="17" spans="2:16">
-      <c r="B17" s="50" t="str">
+      <c r="B17" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B17)&lt;&gt;0,'Sprint 1 - Planification'!B17,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C17" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C17)&lt;&gt;0,'Sprint 1 - Planification'!C17,"")</f>
-        <v/>
+        <v>Création de la classe Editor</v>
       </c>
       <c r="D17" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E17" s="112"/>
       <c r="F17" s="113"/>
@@ -9547,17 +7568,17 @@
       <c r="P17" s="8"/>
     </row>
     <row r="18" spans="2:16">
-      <c r="B18" s="53" t="str">
+      <c r="B18" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B18)&lt;&gt;0,'Sprint 1 - Planification'!B18,"")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="C18" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C18)&lt;&gt;0,'Sprint 1 - Planification'!C18,"")</f>
-        <v/>
+        <v>Éditeur de strings</v>
       </c>
       <c r="D18" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E18" s="118"/>
       <c r="F18" s="116"/>
@@ -9577,17 +7598,17 @@
       <c r="P18" s="8"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="B19" s="50" t="str">
+      <c r="B19" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B19)&lt;&gt;0,'Sprint 1 - Planification'!B19,"")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="C19" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v/>
+        <v>Fonction de sauvegarde</v>
       </c>
       <c r="D19" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E19" s="112"/>
       <c r="F19" s="113"/>
@@ -9607,17 +7628,17 @@
       <c r="P19" s="8"/>
     </row>
     <row r="20" spans="2:16">
-      <c r="B20" s="53" t="str">
+      <c r="B20" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B20)&lt;&gt;0,'Sprint 1 - Planification'!B20,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="C20" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C20)&lt;&gt;0,'Sprint 1 - Planification'!C20,"")</f>
-        <v/>
+        <v>Éditeur hexadécimal</v>
       </c>
       <c r="D20" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E20" s="118"/>
       <c r="F20" s="116"/>
@@ -9637,17 +7658,17 @@
       <c r="P20" s="8"/>
     </row>
     <row r="21" spans="2:16">
-      <c r="B21" s="50" t="str">
+      <c r="B21" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B21)&lt;&gt;0,'Sprint 1 - Planification'!B21,"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C21" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v/>
+        <v>Éditeur de ressources</v>
       </c>
       <c r="D21" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E21" s="112"/>
       <c r="F21" s="113"/>
@@ -9667,17 +7688,17 @@
       <c r="P21" s="8"/>
     </row>
     <row r="22" spans="2:16">
-      <c r="B22" s="53" t="str">
+      <c r="B22" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B22)&lt;&gt;0,'Sprint 1 - Planification'!B22,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C22" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v/>
+        <v>Classe statistiques</v>
       </c>
       <c r="D22" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="115"/>
       <c r="F22" s="116"/>
@@ -9697,17 +7718,17 @@
       <c r="P22" s="8"/>
     </row>
     <row r="23" spans="2:16">
-      <c r="B23" s="50" t="str">
+      <c r="B23" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B23)&lt;&gt;0,'Sprint 1 - Planification'!B23,"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C23" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v/>
+        <v>Création de la classe cube</v>
       </c>
       <c r="D23" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E23" s="112"/>
       <c r="F23" s="113"/>
@@ -9727,17 +7748,17 @@
       <c r="P23" s="8"/>
     </row>
     <row r="24" spans="2:16">
-      <c r="B24" s="53" t="str">
+      <c r="B24" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B24)&lt;&gt;0,'Sprint 1 - Planification'!B24,"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C24" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v/>
+        <v>Création de la classe disassembly</v>
       </c>
       <c r="D24" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E24" s="118"/>
       <c r="F24" s="116"/>
@@ -9757,17 +7778,17 @@
       <c r="P24" s="8"/>
     </row>
     <row r="25" spans="2:16">
-      <c r="B25" s="50" t="str">
+      <c r="B25" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B25)&lt;&gt;0,'Sprint 1 - Planification'!B25,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C25" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v/>
+        <v>Éditeur d'assembleur</v>
       </c>
       <c r="D25" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E25" s="112"/>
       <c r="F25" s="113"/>
@@ -9787,17 +7808,17 @@
       <c r="P25" s="8"/>
     </row>
     <row r="26" spans="2:16">
-      <c r="B26" s="53" t="str">
+      <c r="B26" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B26)&lt;&gt;0,'Sprint 1 - Planification'!B26,"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C26" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v/>
+        <v>Analyse cryptographique</v>
       </c>
       <c r="D26" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E26" s="118"/>
       <c r="F26" s="116"/>
@@ -10510,7 +8531,7 @@
     <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1">
       <c r="B2" s="124" t="str">
         <f>'Sprint 1 - Planification'!B2:H2</f>
-        <v>Nom du projet super cool que vous faites!</v>
+        <v>Relooker</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -10522,7 +8543,7 @@
     </row>
     <row r="3" spans="2:25">
       <c r="B3" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
@@ -10544,7 +8565,7 @@
     </row>
     <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1">
       <c r="B5" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -10554,7 +8575,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 8 champs à remplir!</v>
+        <v>Attention, il reste 30 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1"/>
@@ -10563,23 +8584,23 @@
         <v>0</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="136" t="s">
         <v>23</v>
-      </c>
-      <c r="I7" s="136" t="s">
-        <v>24</v>
       </c>
       <c r="M7" s="7"/>
     </row>
@@ -10588,10 +8609,10 @@
       <c r="C8" s="131"/>
       <c r="D8" s="129"/>
       <c r="E8" s="65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="133"/>
       <c r="H8" s="135"/>
@@ -10814,17 +8835,17 @@
       </c>
     </row>
     <row r="13" spans="2:25">
-      <c r="B13" s="53" t="str">
+      <c r="B13" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B12)&lt;&gt;0,'Sprint 1 - Planification'!B12,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C13" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C12)&lt;&gt;0,'Sprint 1 - Planification'!C12,"")</f>
-        <v/>
+        <v>Création de l'interface QT</v>
       </c>
       <c r="D13" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E13" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E12),"",'Sprint 1 - Bilan'!E12)</f>
@@ -10839,11 +8860,11 @@
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10851,11 +8872,11 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V13" s="63">
         <f>V11</f>
@@ -10867,17 +8888,17 @@
       </c>
     </row>
     <row r="14" spans="2:25">
-      <c r="B14" s="50" t="str">
+      <c r="B14" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B13)&lt;&gt;0,'Sprint 1 - Planification'!B13,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="C14" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C13)&lt;&gt;0,'Sprint 1 - Planification'!C13,"")</f>
-        <v/>
+        <v>Création de la classe Fichier</v>
       </c>
       <c r="D14" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E14" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E13),"",'Sprint 1 - Bilan'!E13)</f>
@@ -10892,11 +8913,11 @@
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10904,11 +8925,11 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V14" s="4">
         <f>V12</f>
@@ -10920,17 +8941,17 @@
       </c>
     </row>
     <row r="15" spans="2:25">
-      <c r="B15" s="53" t="str">
+      <c r="B15" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B14)&lt;&gt;0,'Sprint 1 - Planification'!B14,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="C15" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C14)&lt;&gt;0,'Sprint 1 - Planification'!C14,"")</f>
-        <v/>
+        <v>Création de la classe Visualizer</v>
       </c>
       <c r="D15" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E15" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E14),"",'Sprint 1 - Bilan'!E14)</f>
@@ -10945,11 +8966,11 @@
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -10957,7 +8978,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -10970,17 +8991,17 @@
       </c>
     </row>
     <row r="16" spans="2:25">
-      <c r="B16" s="50" t="str">
+      <c r="B16" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B15)&lt;&gt;0,'Sprint 1 - Planification'!B15,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C16" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C15)&lt;&gt;0,'Sprint 1 - Planification'!C15,"")</f>
-        <v/>
+        <v>Génération 2d de courbe de Hilbert</v>
       </c>
       <c r="D16" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E16" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E15),"",'Sprint 1 - Bilan'!E15)</f>
@@ -10995,11 +9016,11 @@
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11007,30 +9028,30 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche est en retard!",CONCATENATE(V16," tâches sont en retard!")))</f>
-        <v>4 tâches sont en retard!</v>
+        <v>15 tâches sont en retard!</v>
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="53" t="str">
+      <c r="B17" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B16)&lt;&gt;0,'Sprint 1 - Planification'!B16,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C17" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v/>
+        <v>Création des expressions régulières</v>
       </c>
       <c r="D17" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E17" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E16),"",'Sprint 1 - Bilan'!E16)</f>
@@ -11045,11 +9066,11 @@
       <c r="I17" s="117"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11057,22 +9078,22 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="50" t="str">
+      <c r="B18" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B17)&lt;&gt;0,'Sprint 1 - Planification'!B17,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C18" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C17)&lt;&gt;0,'Sprint 1 - Planification'!C17,"")</f>
-        <v/>
+        <v>Création de la classe Editor</v>
       </c>
       <c r="D18" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E18" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E17),"",'Sprint 1 - Bilan'!E17)</f>
@@ -11087,11 +9108,11 @@
       <c r="I18" s="114"/>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11099,22 +9120,22 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="8"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="53" t="str">
+      <c r="B19" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B18)&lt;&gt;0,'Sprint 1 - Planification'!B18,"")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="C19" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C18)&lt;&gt;0,'Sprint 1 - Planification'!C18,"")</f>
-        <v/>
+        <v>Éditeur de strings</v>
       </c>
       <c r="D19" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E19" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E18),"",'Sprint 1 - Bilan'!E18)</f>
@@ -11130,11 +9151,11 @@
       <c r="K19" s="9"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11142,22 +9163,22 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="50" t="str">
+      <c r="B20" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B19)&lt;&gt;0,'Sprint 1 - Planification'!B19,"")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="C20" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v/>
+        <v>Fonction de sauvegarde</v>
       </c>
       <c r="D20" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E20" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E19),"",'Sprint 1 - Bilan'!E19)</f>
@@ -11172,11 +9193,11 @@
       <c r="I20" s="114"/>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11184,22 +9205,22 @@
       </c>
       <c r="P20" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="53" t="str">
+      <c r="B21" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B20)&lt;&gt;0,'Sprint 1 - Planification'!B20,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="C21" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C20)&lt;&gt;0,'Sprint 1 - Planification'!C20,"")</f>
-        <v/>
+        <v>Éditeur hexadécimal</v>
       </c>
       <c r="D21" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E21" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E20),"",'Sprint 1 - Bilan'!E20)</f>
@@ -11214,11 +9235,11 @@
       <c r="I21" s="117"/>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11226,22 +9247,22 @@
       </c>
       <c r="P21" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="50" t="str">
+      <c r="B22" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B21)&lt;&gt;0,'Sprint 1 - Planification'!B21,"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C22" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v/>
+        <v>Éditeur de ressources</v>
       </c>
       <c r="D22" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E21),"",'Sprint 1 - Bilan'!E21)</f>
@@ -11256,11 +9277,11 @@
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11268,22 +9289,22 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="53" t="str">
+      <c r="B23" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B22)&lt;&gt;0,'Sprint 1 - Planification'!B22,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v/>
+        <v>Classe statistiques</v>
       </c>
       <c r="D23" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E23" s="74" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E22),"",'Sprint 1 - Bilan'!E22)</f>
@@ -11298,11 +9319,11 @@
       <c r="I23" s="117"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -11310,22 +9331,22 @@
       </c>
       <c r="P23" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="50" t="str">
+      <c r="B24" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B23)&lt;&gt;0,'Sprint 1 - Planification'!B23,"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C24" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v/>
+        <v>Création de la classe cube</v>
       </c>
       <c r="D24" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E24" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E23),"",'Sprint 1 - Bilan'!E23)</f>
@@ -11357,17 +9378,17 @@
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="53" t="str">
+      <c r="B25" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B24)&lt;&gt;0,'Sprint 1 - Planification'!B24,"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C25" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v/>
+        <v>Création de la classe disassembly</v>
       </c>
       <c r="D25" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E25" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E24),"",'Sprint 1 - Bilan'!E24)</f>
@@ -11399,17 +9420,17 @@
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="50" t="str">
+      <c r="B26" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B25)&lt;&gt;0,'Sprint 1 - Planification'!B25,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C26" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v/>
+        <v>Éditeur d'assembleur</v>
       </c>
       <c r="D26" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E26" s="73" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E25),"",'Sprint 1 - Bilan'!E25)</f>
@@ -11441,17 +9462,17 @@
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="53" t="str">
+      <c r="B27" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B26)&lt;&gt;0,'Sprint 1 - Planification'!B26,"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C27" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v/>
+        <v>Analyse cryptographique</v>
       </c>
       <c r="D27" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E27" s="75" t="str">
         <f>IF(ISBLANK('Sprint 1 - Bilan'!E26),"",'Sprint 1 - Bilan'!E26)</f>
@@ -12157,11 +10178,11 @@
     <row r="44" spans="2:18">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -12169,21 +10190,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>8 champs</v>
+        <v>30 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -12388,7 +10409,7 @@
     <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1">
       <c r="B2" s="124" t="str">
         <f>'Sprint 1 - Planification'!B2:H2</f>
-        <v>Nom du projet super cool que vous faites!</v>
+        <v>Relooker</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="124"/>
@@ -12400,7 +10421,7 @@
     </row>
     <row r="3" spans="2:25">
       <c r="B3" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="33"/>
@@ -12422,7 +10443,7 @@
     </row>
     <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1">
       <c r="B5" s="34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -12432,7 +10453,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="64" t="str">
         <f>IF(M45=0,CONCATENATE("Ce sprint totalise ", W15, " de travail réalisé. ",W16),CONCATENATE("Attention, il reste ",M46," à remplir!"))</f>
-        <v>Attention, il reste 8 champs à remplir!</v>
+        <v>Attention, il reste 38 champs à remplir!</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="7.5" customHeight="1" thickBot="1"/>
@@ -12441,23 +10462,23 @@
         <v>0</v>
       </c>
       <c r="C7" s="130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="127"/>
       <c r="G7" s="132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="134" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="136" t="s">
         <v>23</v>
-      </c>
-      <c r="I7" s="136" t="s">
-        <v>24</v>
       </c>
       <c r="M7" s="7"/>
     </row>
@@ -12466,10 +10487,10 @@
       <c r="C8" s="131"/>
       <c r="D8" s="129"/>
       <c r="E8" s="67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="133"/>
       <c r="H8" s="135"/>
@@ -12692,17 +10713,17 @@
       </c>
     </row>
     <row r="13" spans="2:25">
-      <c r="B13" s="53" t="str">
+      <c r="B13" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B12)&lt;&gt;0,'Sprint 1 - Planification'!B12,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C13" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C12)&lt;&gt;0,'Sprint 1 - Planification'!C12,"")</f>
-        <v/>
+        <v>Création de l'interface QT</v>
       </c>
       <c r="D13" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H12)&lt;&gt;0,'Sprint 1 - Planification'!H12,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E13" s="75" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E13)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G13))</f>
@@ -12717,11 +10738,11 @@
       <c r="I13" s="117"/>
       <c r="M13" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12729,11 +10750,11 @@
       </c>
       <c r="P13" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="8"/>
       <c r="U13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="V13" s="63">
         <f>V11</f>
@@ -12745,17 +10766,17 @@
       </c>
     </row>
     <row r="14" spans="2:25">
-      <c r="B14" s="50" t="str">
+      <c r="B14" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B13)&lt;&gt;0,'Sprint 1 - Planification'!B13,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="C14" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C13)&lt;&gt;0,'Sprint 1 - Planification'!C13,"")</f>
-        <v/>
+        <v>Création de la classe Fichier</v>
       </c>
       <c r="D14" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H13)&lt;&gt;0,'Sprint 1 - Planification'!H13,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E14" s="73" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E14)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G14))</f>
@@ -12770,11 +10791,11 @@
       <c r="I14" s="114"/>
       <c r="M14" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12782,11 +10803,11 @@
       </c>
       <c r="P14" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="8"/>
       <c r="U14" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V14" s="4">
         <f>V12</f>
@@ -12798,17 +10819,17 @@
       </c>
     </row>
     <row r="15" spans="2:25">
-      <c r="B15" s="53" t="str">
+      <c r="B15" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B14)&lt;&gt;0,'Sprint 1 - Planification'!B14,"")</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="C15" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C14)&lt;&gt;0,'Sprint 1 - Planification'!C14,"")</f>
-        <v/>
+        <v>Création de la classe Visualizer</v>
       </c>
       <c r="D15" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H14)&lt;&gt;0,'Sprint 1 - Planification'!H14,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E15" s="75" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E15)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G15))</f>
@@ -12823,11 +10844,11 @@
       <c r="I15" s="117"/>
       <c r="M15" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12835,7 +10856,7 @@
       </c>
       <c r="P15" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="8"/>
       <c r="W15" s="4" t="str">
@@ -12848,17 +10869,17 @@
       </c>
     </row>
     <row r="16" spans="2:25">
-      <c r="B16" s="50" t="str">
+      <c r="B16" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B15)&lt;&gt;0,'Sprint 1 - Planification'!B15,"")</f>
-        <v/>
+        <v>8</v>
       </c>
       <c r="C16" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C15)&lt;&gt;0,'Sprint 1 - Planification'!C15,"")</f>
-        <v/>
+        <v>Génération 2d de courbe de Hilbert</v>
       </c>
       <c r="D16" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H15)&lt;&gt;0,'Sprint 1 - Planification'!H15,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E16" s="73" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E16)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G16))</f>
@@ -12873,11 +10894,11 @@
       <c r="I16" s="114"/>
       <c r="M16" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12885,30 +10906,30 @@
       </c>
       <c r="P16" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="8"/>
       <c r="V16" s="4">
         <f>P44</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="W16" s="4" t="str">
         <f>IF(V16=0,"",IF(V16=1,"Une tâche n'a pas été terminée!",CONCATENATE(V16," tâches n'ont pas été terminé!")))</f>
-        <v>4 tâches n'ont pas été terminé!</v>
+        <v>19 tâches n'ont pas été terminé!</v>
       </c>
     </row>
     <row r="17" spans="2:18">
-      <c r="B17" s="53" t="str">
+      <c r="B17" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B16)&lt;&gt;0,'Sprint 1 - Planification'!B16,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C17" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C16)&lt;&gt;0,'Sprint 1 - Planification'!C16,"")</f>
-        <v/>
+        <v>Création des expressions régulières</v>
       </c>
       <c r="D17" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H16)&lt;&gt;0,'Sprint 1 - Planification'!H16,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E17" s="74" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E17)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G17))</f>
@@ -12923,11 +10944,11 @@
       <c r="I17" s="117"/>
       <c r="M17" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12935,22 +10956,22 @@
       </c>
       <c r="P17" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8"/>
     </row>
     <row r="18" spans="2:18">
-      <c r="B18" s="50" t="str">
+      <c r="B18" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B17)&lt;&gt;0,'Sprint 1 - Planification'!B17,"")</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="C18" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C17)&lt;&gt;0,'Sprint 1 - Planification'!C17,"")</f>
-        <v/>
+        <v>Création de la classe Editor</v>
       </c>
       <c r="D18" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H17)&lt;&gt;0,'Sprint 1 - Planification'!H17,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E18" s="73" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E18)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G18))</f>
@@ -12965,11 +10986,11 @@
       <c r="I18" s="114"/>
       <c r="M18" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="3" t="b">
         <f t="shared" si="2"/>
@@ -12977,22 +10998,22 @@
       </c>
       <c r="P18" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="8"/>
     </row>
     <row r="19" spans="2:18">
-      <c r="B19" s="53" t="str">
+      <c r="B19" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B18)&lt;&gt;0,'Sprint 1 - Planification'!B18,"")</f>
-        <v/>
+        <v>11</v>
       </c>
       <c r="C19" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C18)&lt;&gt;0,'Sprint 1 - Planification'!C18,"")</f>
-        <v/>
+        <v>Éditeur de strings</v>
       </c>
       <c r="D19" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H18)&lt;&gt;0,'Sprint 1 - Planification'!H18,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E19" s="75" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E19)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G19))</f>
@@ -13007,11 +11028,11 @@
       <c r="I19" s="117"/>
       <c r="M19" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13019,22 +11040,22 @@
       </c>
       <c r="P19" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="8"/>
     </row>
     <row r="20" spans="2:18">
-      <c r="B20" s="50" t="str">
+      <c r="B20" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B19)&lt;&gt;0,'Sprint 1 - Planification'!B19,"")</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="C20" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C19)&lt;&gt;0,'Sprint 1 - Planification'!C19,"")</f>
-        <v/>
+        <v>Fonction de sauvegarde</v>
       </c>
       <c r="D20" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H19)&lt;&gt;0,'Sprint 1 - Planification'!H19,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E20" s="73" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E20)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G20))</f>
@@ -13049,11 +11070,11 @@
       <c r="I20" s="114"/>
       <c r="M20" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13061,22 +11082,22 @@
       </c>
       <c r="P20" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="8"/>
     </row>
     <row r="21" spans="2:18">
-      <c r="B21" s="53" t="str">
+      <c r="B21" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B20)&lt;&gt;0,'Sprint 1 - Planification'!B20,"")</f>
-        <v/>
+        <v>13</v>
       </c>
       <c r="C21" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C20)&lt;&gt;0,'Sprint 1 - Planification'!C20,"")</f>
-        <v/>
+        <v>Éditeur hexadécimal</v>
       </c>
       <c r="D21" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H20)&lt;&gt;0,'Sprint 1 - Planification'!H20,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E21" s="75" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E21)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G21))</f>
@@ -13091,11 +11112,11 @@
       <c r="I21" s="117"/>
       <c r="M21" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13103,22 +11124,22 @@
       </c>
       <c r="P21" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" s="8"/>
     </row>
     <row r="22" spans="2:18">
-      <c r="B22" s="50" t="str">
+      <c r="B22" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B21)&lt;&gt;0,'Sprint 1 - Planification'!B21,"")</f>
-        <v/>
+        <v>14</v>
       </c>
       <c r="C22" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C21)&lt;&gt;0,'Sprint 1 - Planification'!C21,"")</f>
-        <v/>
+        <v>Éditeur de ressources</v>
       </c>
       <c r="D22" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H21)&lt;&gt;0,'Sprint 1 - Planification'!H21,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E22" s="73" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E22)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G22))</f>
@@ -13133,11 +11154,11 @@
       <c r="I22" s="114"/>
       <c r="M22" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13145,22 +11166,22 @@
       </c>
       <c r="P22" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="8"/>
     </row>
     <row r="23" spans="2:18">
-      <c r="B23" s="53" t="str">
+      <c r="B23" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B22)&lt;&gt;0,'Sprint 1 - Planification'!B22,"")</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="C23" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C22)&lt;&gt;0,'Sprint 1 - Planification'!C22,"")</f>
-        <v/>
+        <v>Classe statistiques</v>
       </c>
       <c r="D23" s="55" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H22)&lt;&gt;0,'Sprint 1 - Planification'!H22,"")</f>
-        <v/>
+        <v>Sprint 2</v>
       </c>
       <c r="E23" s="74" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E23)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G23))</f>
@@ -13175,11 +11196,11 @@
       <c r="I23" s="117"/>
       <c r="M23" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13187,22 +11208,22 @@
       </c>
       <c r="P23" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="8"/>
     </row>
     <row r="24" spans="2:18">
-      <c r="B24" s="50" t="str">
+      <c r="B24" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B23)&lt;&gt;0,'Sprint 1 - Planification'!B23,"")</f>
-        <v/>
+        <v>16</v>
       </c>
       <c r="C24" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C23)&lt;&gt;0,'Sprint 1 - Planification'!C23,"")</f>
-        <v/>
+        <v>Création de la classe cube</v>
       </c>
       <c r="D24" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H23)&lt;&gt;0,'Sprint 1 - Planification'!H23,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E24" s="73" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E24)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G24))</f>
@@ -13217,11 +11238,11 @@
       <c r="I24" s="114"/>
       <c r="M24" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13229,22 +11250,22 @@
       </c>
       <c r="P24" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="8"/>
     </row>
     <row r="25" spans="2:18">
-      <c r="B25" s="53" t="str">
+      <c r="B25" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B24)&lt;&gt;0,'Sprint 1 - Planification'!B24,"")</f>
-        <v/>
+        <v>17</v>
       </c>
       <c r="C25" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C24)&lt;&gt;0,'Sprint 1 - Planification'!C24,"")</f>
-        <v/>
+        <v>Création de la classe disassembly</v>
       </c>
       <c r="D25" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H24)&lt;&gt;0,'Sprint 1 - Planification'!H24,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E25" s="75" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E25)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G25))</f>
@@ -13259,11 +11280,11 @@
       <c r="I25" s="117"/>
       <c r="M25" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13271,22 +11292,22 @@
       </c>
       <c r="P25" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="8"/>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="50" t="str">
+      <c r="B26" s="50">
         <f>IF(LEN('Sprint 1 - Planification'!B25)&lt;&gt;0,'Sprint 1 - Planification'!B25,"")</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="C26" s="51" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C25)&lt;&gt;0,'Sprint 1 - Planification'!C25,"")</f>
-        <v/>
+        <v>Éditeur d'assembleur</v>
       </c>
       <c r="D26" s="52" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H25)&lt;&gt;0,'Sprint 1 - Planification'!H25,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E26" s="73" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E26)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G26))</f>
@@ -13301,11 +11322,11 @@
       <c r="I26" s="114"/>
       <c r="M26" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13313,22 +11334,22 @@
       </c>
       <c r="P26" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R26" s="8"/>
     </row>
     <row r="27" spans="2:18">
-      <c r="B27" s="53" t="str">
+      <c r="B27" s="53">
         <f>IF(LEN('Sprint 1 - Planification'!B26)&lt;&gt;0,'Sprint 1 - Planification'!B26,"")</f>
-        <v/>
+        <v>19</v>
       </c>
       <c r="C27" s="54" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!C26)&lt;&gt;0,'Sprint 1 - Planification'!C26,"")</f>
-        <v/>
+        <v>Analyse cryptographique</v>
       </c>
       <c r="D27" s="56" t="str">
         <f>IF(LEN('Sprint 1 - Planification'!H26)&lt;&gt;0,'Sprint 1 - Planification'!H26,"")</f>
-        <v/>
+        <v>Sprint 3</v>
       </c>
       <c r="E27" s="75" t="e">
         <f ca="1">IF(_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27)=0,"",_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$E27)+_1__xlfn.NUMBERVALUE('Sprint 2 - Bilan'!$G27))</f>
@@ -13343,11 +11364,11 @@
       <c r="I27" s="117"/>
       <c r="M27" s="3" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="3" t="b">
         <f t="shared" si="2"/>
@@ -13355,7 +11376,7 @@
       </c>
       <c r="P27" s="3" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" s="8"/>
     </row>
@@ -14034,11 +12055,11 @@
     <row r="44" spans="2:18">
       <c r="M44" s="3">
         <f>COUNTIF(M9:M43,TRUE)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" ref="N44:O44" si="5">COUNTIF(N9:N43,TRUE)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O44" s="3">
         <f t="shared" si="5"/>
@@ -14046,21 +12067,21 @@
       </c>
       <c r="P44" s="3">
         <f>COUNTIF(P9:P43,FALSE)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="R44" s="8"/>
     </row>
     <row r="45" spans="2:18">
       <c r="M45" s="3">
         <f>SUM(M44:O44)</f>
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="R45" s="8"/>
     </row>
     <row r="46" spans="2:18">
       <c r="M46" s="3" t="str">
         <f>IF(M45=0, "aucun champ", IF(M45=1, "1 champ", M45 &amp; " champs"))</f>
-        <v>8 champs</v>
+        <v>38 champs</v>
       </c>
       <c r="R46" s="8"/>
     </row>
@@ -14207,7 +12228,7 @@
     <row r="1" spans="2:25" ht="7.5" customHeight="1"/>
     <row r="2" spans="2:25" ht="22.5" customHeight="1" thickBot="1">
       <c r="B2" s="108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
@@ -14220,7 +12241,7 @@
     </row>
     <row r="3" spans="2:25" ht="15" customHeight="1">
       <c r="B3" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="88"/>
       <c r="D3" s="88"/>
@@ -14236,7 +12257,7 @@
     </row>
     <row r="5" spans="2:25" ht="22.5" customHeight="1" thickBot="1">
       <c r="B5" s="87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="89"/>
@@ -14260,7 +12281,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="94" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -14275,7 +12296,7 @@
     </row>
     <row r="8" spans="2:25" s="2" customFormat="1">
       <c r="B8" s="91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="95">
         <f>L8</f>
@@ -14283,15 +12304,15 @@
       </c>
       <c r="D8" s="96">
         <f>M8</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" s="97">
         <f>N8</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="101">
         <f>O8</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -14301,15 +12322,15 @@
       </c>
       <c r="M8" s="1">
         <f>'Sprint 1 - Planification'!AJ18</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N8" s="1">
         <f>'Sprint 1 - Planification'!AJ19</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" s="1">
         <f>SUM(L8:N8)</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -14318,7 +12339,7 @@
     </row>
     <row r="9" spans="2:25" s="2" customFormat="1">
       <c r="B9" s="92" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="98" t="str">
         <f t="shared" ref="C9:F10" si="0">DAY(L9)*24+HOUR(L9)&amp;"h"&amp;TEXT(MINUTE(L9),"00")</f>
@@ -14326,15 +12347,15 @@
       </c>
       <c r="D9" s="99" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>31h00</v>
       </c>
       <c r="E9" s="100" t="str">
         <f t="shared" si="0"/>
-        <v>0h00</v>
+        <v>24h00</v>
       </c>
       <c r="F9" s="102" t="str">
         <f t="shared" si="0"/>
-        <v>12h30</v>
+        <v>67h30</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -14344,18 +12365,18 @@
       </c>
       <c r="M9" s="1">
         <f>'Sprint 1 - Planification'!AD18</f>
-        <v>0</v>
+        <v>1.2916666666666672</v>
       </c>
       <c r="N9" s="1">
         <f>'Sprint 1 - Planification'!AD19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
         <f>SUM(L9:N9)</f>
-        <v>0.5208333333333337</v>
+        <v>2.8125000000000009</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ref="Q9:S10" si="1">DAY(L9)*24+HOUR(L9)+MINUTE(L9)/60</f>
@@ -14363,30 +12384,30 @@
       </c>
       <c r="R9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="S9" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="V9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Essentielle")</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y9" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,1)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:25" s="2" customFormat="1">
       <c r="B10" s="91" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="95" t="str">
         <f t="shared" si="0"/>
@@ -14423,7 +12444,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="1"/>
@@ -14438,23 +12459,23 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!E8:E42,"Optionnelle")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y10" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,2)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:25" s="2" customFormat="1" ht="15" thickBot="1">
       <c r="B11" s="103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="104">
         <f>L11</f>
@@ -14462,15 +12483,15 @@
       </c>
       <c r="D11" s="105">
         <f>M11</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E11" s="106">
         <f>N11</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F11" s="107">
         <f>O11</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -14480,26 +12501,26 @@
       </c>
       <c r="M11" s="1">
         <f>'Sprint 2 - Bilan'!V16</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N11" s="1">
         <f>'Sprint 3 - Bilan'!V16</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="O11" s="1">
         <f>N11</f>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="X11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Y11" s="2">
         <f>COUNTIF('Sprint 1 - Planification'!F8:F42,3)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:25" s="2" customFormat="1">
@@ -14658,7 +12679,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1"/>
     <row r="2" spans="2:8" ht="22.5" customHeight="1" thickBot="1">
       <c r="B2" s="138" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="138"/>
       <c r="D2" s="138"/>
@@ -14669,7 +12690,7 @@
     </row>
     <row r="3" spans="2:8" ht="15" customHeight="1">
       <c r="B3" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="81"/>
@@ -14689,7 +12710,7 @@
     </row>
     <row r="5" spans="2:8" ht="22.5" customHeight="1" thickBot="1">
       <c r="B5" s="28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="83"/>
@@ -14702,7 +12723,7 @@
     <row r="7" spans="2:8" s="2" customFormat="1">
       <c r="B7" s="1"/>
       <c r="C7" s="85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="1"/>
@@ -14713,7 +12734,7 @@
     <row r="8" spans="2:8" s="2" customFormat="1">
       <c r="B8" s="84"/>
       <c r="D8" s="84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -14723,7 +12744,7 @@
     <row r="9" spans="2:8" s="2" customFormat="1">
       <c r="B9" s="1"/>
       <c r="D9" s="84" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -14741,7 +12762,7 @@
     <row r="11" spans="2:8" s="2" customFormat="1">
       <c r="B11" s="1"/>
       <c r="C11" s="85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="1"/>
@@ -14752,7 +12773,7 @@
     <row r="12" spans="2:8" s="2" customFormat="1">
       <c r="B12" s="1"/>
       <c r="D12" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -14762,7 +12783,7 @@
     <row r="13" spans="2:8" s="2" customFormat="1">
       <c r="B13" s="1"/>
       <c r="D13" s="84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -14772,7 +12793,7 @@
     <row r="14" spans="2:8" s="2" customFormat="1">
       <c r="B14" s="1"/>
       <c r="D14" s="84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -14782,7 +12803,7 @@
     <row r="15" spans="2:8" s="2" customFormat="1">
       <c r="B15" s="1"/>
       <c r="D15" s="84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -14792,7 +12813,7 @@
     <row r="16" spans="2:8" s="2" customFormat="1">
       <c r="B16" s="1"/>
       <c r="D16" s="84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -14802,7 +12823,7 @@
     <row r="17" spans="2:8" s="2" customFormat="1">
       <c r="B17" s="1"/>
       <c r="D17" s="84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -14812,7 +12833,7 @@
     <row r="18" spans="2:8" s="2" customFormat="1">
       <c r="B18" s="1"/>
       <c r="D18" s="84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -14821,7 +12842,7 @@
     </row>
     <row r="20" spans="2:8" ht="22.5" customHeight="1" thickBot="1">
       <c r="B20" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="83"/>
@@ -14834,7 +12855,7 @@
     <row r="22" spans="2:8" s="2" customFormat="1">
       <c r="B22" s="1"/>
       <c r="C22" s="85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="84"/>
       <c r="E22" s="1"/>
@@ -14845,7 +12866,7 @@
     <row r="23" spans="2:8" s="2" customFormat="1">
       <c r="B23" s="84"/>
       <c r="D23" s="84" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -14855,7 +12876,7 @@
     <row r="24" spans="2:8" s="2" customFormat="1">
       <c r="B24" s="1"/>
       <c r="D24" s="84" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -14865,7 +12886,7 @@
     <row r="25" spans="2:8" s="2" customFormat="1">
       <c r="B25" s="1"/>
       <c r="D25" s="84" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -14882,7 +12903,7 @@
     </row>
     <row r="28" spans="2:8" ht="22.5" customHeight="1" thickBot="1">
       <c r="B28" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="83"/>
@@ -14895,7 +12916,7 @@
     <row r="30" spans="2:8" s="2" customFormat="1">
       <c r="B30" s="1"/>
       <c r="C30" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="84"/>
       <c r="E30" s="1"/>
@@ -14913,7 +12934,7 @@
     </row>
     <row r="33" spans="2:8" ht="22.5" customHeight="1" thickBot="1">
       <c r="B33" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="83"/>
@@ -14926,7 +12947,7 @@
     <row r="35" spans="2:8" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="B35" s="1"/>
       <c r="C35" s="139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="139"/>
       <c r="E35" s="139"/>
